--- a/medicine/Mort/Mort_(Disque-monde)/Mort_(Disque-monde).xlsx
+++ b/medicine/Mort/Mort_(Disque-monde)/Mort_(Disque-monde).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mort est le personnage de l'univers de fiction du Disque-monde de Terry Pratchett le plus récurrent apparaissant dans la quasi-totalité des romans composant les Annales du Disque Monde.
 Personnalité anthropomorphique issue des croyances du Disque-monde, il a pour charge de séparer l'âme du corps des individus décédés pour éviter l'accumulation d'énergie vitale.
@@ -512,7 +524,9 @@
           <t>Apparence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mort est représenté (« la Mort est un mâle, un mal nécessaire ») par un squelette de deux mètres dix de haut vêtu d'une robe tissée de noir absolu. Deux lueurs bleues flamboient dans ses orbites.
 Il possède une voix caverneuse qui semble avoir la faculté de s'imprimer directement dans le cerveau sans passer par les oreilles. Remarque : la voix de la Mort (ou de son remplaçant du moment) s'écrit en petites capitales d'imprimerie.
@@ -547,7 +561,9 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à une idée fausse qu'il est facile de se faire, la Mort n'est pas le méchant de l'histoire. D'ailleurs il ne tue pas, il se contente de détacher l'âme du corps une fois les choses mortes.
 Bien que comprendre le comportement d'un tel personnage soit difficile, la Mort semble fasciné par la vie et par les humains en particulier. Il est d'ailleurs considéré comme un ennemi par les Contrôleurs de la réalité.
@@ -582,7 +598,9 @@
           <t>Compagnons de la Mort</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De nombreux personnages gravitent autour de la Mort :
 Albert (de son vrai nom Alberto Malik) est le serviteur de la Mort, il s'occupe principalement de sa maison. Il fut autrefois le fondateur de l'Université de l'Invisible et l'un des mages les plus puissants. Comme il ne lui reste que quelques jours à vivre, il a passé un marché avec la Mort afin de demeurer dans le domaine de ce dernier puisque le temps ne s'y écoule pas.
@@ -620,7 +638,9 @@
           <t>La Mort hors des Annales du Disque-monde</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mort fait aussi une courte apparition dans Johnny et les Morts, autre livre de Terry Pratchett hors Disque-monde ainsi que dans De bons présages (coécrit avec Neil Gaiman).
 L'acteur britannique Christopher Lee a prêté sa voix à La Mort dans les films d'animation tirés des romans de Terry Pratchett.
